--- a/dsmb_ccru_tables/ae_detail EXAMPLE_STUDY Cohort C 30OCT2020.xlsx
+++ b/dsmb_ccru_tables/ae_detail EXAMPLE_STUDY Cohort C 30OCT2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -32,25 +32,55 @@
     <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
   </si>
   <si>
+    <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANEMIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEBRILE NEUTROPENIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHITEBLOODCELLSINCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAR AND LABYRINTH DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAR PAIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">GASTROINTESTINAL DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">CONSTIPATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYSPHAGIA</t>
+    <t xml:space="preserve">DIARRHEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRY MOUTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYSPEPSIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEMORRHOIDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOOSE BOWEL MOVEMENTS</t>
   </si>
   <si>
     <t xml:space="preserve">NAUSEA</t>
   </si>
   <si>
-    <t xml:space="preserve">66.67</t>
+    <t xml:space="preserve">ORALLESIONTOLEFTSIDEOFTONGUE</t>
   </si>
   <si>
     <t xml:space="preserve">VOMITING</t>
@@ -59,28 +89,64 @@
     <t xml:space="preserve">GENERAL DISORDERS AND ADMINISTRATION SITE CONDITIONS</t>
   </si>
   <si>
+    <t xml:space="preserve">CHILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDEMA LIMBS</t>
+  </si>
+  <si>
     <t xml:space="preserve">FATIGUE</t>
   </si>
   <si>
-    <t xml:space="preserve">FEVER</t>
-  </si>
-  <si>
     <t xml:space="preserve">PAIN</t>
   </si>
   <si>
+    <t xml:space="preserve">INFECTIONS AND INFESTATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNG INFECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIGATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALKALINE PHOSPHATASE INCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASPARTATE AMINOTRANSFERASE INCREASED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOOD BILIRUBIN INCREASED</t>
+  </si>
+  <si>
     <t xml:space="preserve">METABOLISM AND NUTRITION DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">ANOREXIA</t>
+    <t xml:space="preserve">HYPERPHOSPHATEMIA</t>
   </si>
   <si>
     <t xml:space="preserve">MUSCULOSKELETAL AND CONNECTIVE TISSUE DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">CHEST WALL PAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SURGICAL SITE PAIN</t>
+    <t xml:space="preserve">BACK PAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONE PAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NERVOUS SYSTEM DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIZZINESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYSGEUSIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEADACHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERCRANIALHEMORRHAGE</t>
   </si>
   <si>
     <t xml:space="preserve">PSYCHIATRIC DISORDERS</t>
@@ -92,22 +158,22 @@
     <t xml:space="preserve">RESPIRATORY, THORACIC AND MEDIASTINAL DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">COUGH</t>
-  </si>
-  <si>
     <t xml:space="preserve">DYSPNEA</t>
   </si>
   <si>
     <t xml:space="preserve">SKIN AND SUBCUTANEOUS TISSUE DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">HYPERHIDROSIS</t>
+    <t xml:space="preserve">LESION-BACKOFLEFTTHIGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRURITUS</t>
   </si>
   <si>
     <t xml:space="preserve">VASCULAR DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">THROMBOEMBOLIC EVENT</t>
+    <t xml:space="preserve">HYPOTENSION</t>
   </si>
   <si>
     <t xml:space="preserve">Phase X Study to Evaluate Treatments A-D</t>
@@ -650,22 +716,22 @@
   <sheetData>
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" ht="82" customHeight="1">
@@ -702,10 +768,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -713,7 +779,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>1</v>
@@ -722,10 +788,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -733,24 +799,24 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -765,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -776,16 +842,16 @@
         <v>15</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -793,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>1</v>
@@ -805,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -813,7 +879,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>1</v>
@@ -825,12 +891,12 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
@@ -845,16 +911,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C18" s="3" t="n">
         <v>1</v>
       </c>
@@ -865,35 +931,35 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>1</v>
@@ -905,36 +971,36 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C22" s="3" t="n">
         <v>1</v>
       </c>
@@ -945,47 +1011,387 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>8</v>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/dsmb_ccru_tables/ae_detail EXAMPLE_STUDY Cohort C 30OCT2020.xlsx
+++ b/dsmb_ccru_tables/ae_detail EXAMPLE_STUDY Cohort C 30OCT2020.xlsx
@@ -23,13 +23,13 @@
     <t xml:space="preserve"># of subjects that have experienced the AE</t>
   </si>
   <si>
-    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=5)</t>
   </si>
   <si>
     <t xml:space="preserve"># of subjects that experienced the event at a grade 3 to 5</t>
   </si>
   <si>
-    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=5)</t>
   </si>
   <si>
     <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ANEMIA</t>
   </si>
   <si>
-    <t xml:space="preserve">33.33</t>
+    <t xml:space="preserve">20.00</t>
   </si>
   <si>
     <t xml:space="preserve">FEBRILE NEUTROPENIA</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">DIARRHEA</t>
   </si>
   <si>
-    <t xml:space="preserve">66.67</t>
+    <t xml:space="preserve">40.00</t>
   </si>
   <si>
     <t xml:space="preserve">DRY MOUTH</t>
